--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,280 +40,301 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>terrifying</t>
   </si>
   <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>stupid</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>uncomfortable</t>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>boring</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>sad</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>frightening</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
+    <t>least</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>pretty</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>ironic</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>opening</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>digital</t>
+    <t>today</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>real</t>
   </si>
   <si>
-    <t>true</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>facebook</t>
   </si>
   <si>
     <t>world</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>facebook</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>one</t>
   </si>
   <si>
     <t>’</t>
@@ -680,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -770,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -791,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -802,10 +823,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -820,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -870,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -920,16 +941,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -941,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -949,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,16 +991,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -991,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -999,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1017,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.76</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L8">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1041,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1049,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1067,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>0.7543859649122807</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1091,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1099,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.875</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1117,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>0.7333333333333333</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1141,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1149,13 +1170,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1170,16 +1191,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.7</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1191,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1199,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1220,16 +1241,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>0.6896551724137931</v>
+        <v>0.72</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1249,38 +1270,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8181818181818182</v>
+        <v>0.8125</v>
       </c>
       <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L13">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>9</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="L13">
-        <v>13</v>
-      </c>
-      <c r="M13">
-        <v>13</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1291,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1320,16 +1341,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1341,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1349,13 +1370,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7647058823529411</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1370,16 +1391,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.6153846153846154</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1391,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1420,16 +1441,16 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>0.6111111111111112</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1441,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1449,13 +1470,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1467,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0.5925925925925926</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1491,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1499,13 +1520,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1517,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1541,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1549,13 +1570,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1567,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1591,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1599,13 +1620,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7368421052631579</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1617,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K20">
-        <v>0.4736842105263158</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1641,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1649,13 +1670,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7142857142857143</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1667,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K21">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1691,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1699,13 +1720,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7058823529411765</v>
+        <v>0.65</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1717,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22">
-        <v>0.4375</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1741,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1749,13 +1770,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1767,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>0.4242424242424243</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L23">
         <v>14</v>
@@ -1791,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1799,13 +1820,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6956521739130435</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1817,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24">
-        <v>0.3898305084745763</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1841,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1849,13 +1870,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6666666666666666</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1867,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K25">
-        <v>0.3132969034608379</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L25">
-        <v>344</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>344</v>
+        <v>7</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1891,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>754</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1899,49 +1920,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6538461538461539</v>
+        <v>0.625</v>
       </c>
       <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>17</v>
-      </c>
-      <c r="D26">
-        <v>17</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>9</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="M26">
-        <v>7</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1949,13 +1970,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.644927536231884</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C27">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1967,19 +1988,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27">
-        <v>0.2950819672131147</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1991,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1999,13 +2020,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6382978723404256</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2017,19 +2038,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K28">
-        <v>0.2407407407407407</v>
+        <v>0.2914389799635702</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2041,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2049,13 +2070,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2067,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K29">
-        <v>0.2391304347826087</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2091,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2099,13 +2120,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6071428571428571</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2120,16 +2141,16 @@
         <v>11</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K30">
-        <v>0.2307692307692308</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2141,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2149,13 +2170,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2167,19 +2188,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K31">
-        <v>0.22</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2191,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2199,13 +2220,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2217,19 +2238,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K32">
-        <v>0.2195121951219512</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2241,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2249,13 +2270,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2267,19 +2288,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K33">
-        <v>0.2191780821917808</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2291,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2302,10 +2323,10 @@
         <v>0.5</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2317,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K34">
         <v>0.2153846153846154</v>
@@ -2352,10 +2373,10 @@
         <v>0.5</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2367,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K35">
         <v>0.2142857142857143</v>
@@ -2399,13 +2420,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4871794871794872</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2417,19 +2438,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36">
-        <v>0.2105263157894737</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2441,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2449,7 +2470,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -2467,19 +2488,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37">
-        <v>0.1951219512195122</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2491,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2502,10 +2523,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2517,19 +2538,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K38">
-        <v>0.1851851851851852</v>
+        <v>0.2</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2541,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2549,13 +2570,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3571428571428572</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2567,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K39">
-        <v>0.1830985915492958</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2591,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2599,13 +2620,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.282051282051282</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2617,19 +2638,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40">
-        <v>0.1641791044776119</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="L40">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2641,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2649,37 +2670,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.05743243243243244</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>279</v>
+        <v>60</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41">
-        <v>0.15</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2691,21 +2712,45 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>0.38</v>
+      </c>
+      <c r="F42">
+        <v>0.62</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>275</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K42">
-        <v>0.1411764705882353</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L42">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M42">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2717,21 +2762,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43">
-        <v>0.1346153846153846</v>
+        <v>0.15</v>
       </c>
       <c r="L43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2743,21 +2788,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44">
-        <v>0.1259259259259259</v>
+        <v>0.14</v>
       </c>
       <c r="L44">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="M44">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2769,21 +2814,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>472</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45">
-        <v>0.0948905109489051</v>
+        <v>0.14</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2795,21 +2840,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>124</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K46">
-        <v>0.08860759493670886</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2821,21 +2866,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K47">
-        <v>0.08603896103896104</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L47">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2847,21 +2892,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>563</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K48">
-        <v>0.0812720848056537</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2873,21 +2918,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>260</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K49">
-        <v>0.0783132530120482</v>
+        <v>0.09814814814814815</v>
       </c>
       <c r="L49">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M49">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2899,21 +2944,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>612</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K50">
-        <v>0.07407407407407407</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2925,47 +2970,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K51">
-        <v>0.07038123167155426</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>317</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K52">
-        <v>0.06451612903225806</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="L52">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="M52">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2977,21 +3022,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>1624</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K53">
-        <v>0.06349206349206349</v>
+        <v>0.08833922261484099</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3003,47 +3048,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K54">
-        <v>0.06140350877192982</v>
+        <v>0.0858433734939759</v>
       </c>
       <c r="L54">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="M54">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="N54">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>107</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K55">
-        <v>0.05303030303030303</v>
+        <v>0.08253968253968254</v>
       </c>
       <c r="L55">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3055,59 +3100,241 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>125</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K56">
-        <v>0.04615384615384616</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="M56">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>744</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K57">
-        <v>0.02777777777777778</v>
+        <v>0.07917888563049853</v>
       </c>
       <c r="L57">
+        <v>27</v>
+      </c>
+      <c r="M57">
+        <v>27</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K58">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="L58">
         <v>8</v>
       </c>
-      <c r="M57">
+      <c r="M58">
         <v>8</v>
       </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>280</v>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K59">
+        <v>0.06991869918699187</v>
+      </c>
+      <c r="L59">
+        <v>43</v>
+      </c>
+      <c r="M59">
+        <v>44</v>
+      </c>
+      <c r="N59">
+        <v>0.98</v>
+      </c>
+      <c r="O59">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K60">
+        <v>0.0622478386167147</v>
+      </c>
+      <c r="L60">
+        <v>108</v>
+      </c>
+      <c r="M60">
+        <v>109</v>
+      </c>
+      <c r="N60">
+        <v>0.99</v>
+      </c>
+      <c r="O60">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K61">
+        <v>0.05504587155963303</v>
+      </c>
+      <c r="L61">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>6</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K62">
+        <v>0.05121638924455826</v>
+      </c>
+      <c r="L62">
+        <v>40</v>
+      </c>
+      <c r="M62">
+        <v>40</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K63">
+        <v>0.03819444444444445</v>
+      </c>
+      <c r="L63">
+        <v>11</v>
+      </c>
+      <c r="M63">
+        <v>11</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K64">
+        <v>0.03169014084507042</v>
+      </c>
+      <c r="L64">
+        <v>9</v>
+      </c>
+      <c r="M64">
+        <v>24</v>
+      </c>
+      <c r="N64">
+        <v>0.38</v>
+      </c>
+      <c r="O64">
+        <v>0.62</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
